--- a/Time 2D — копия (2).xlsx
+++ b/Time 2D — копия (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18845CE8-ECC9-4B7E-B09C-A8DE268FCFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B256FDC8-849B-49BA-BECF-72911F85CD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Julia 2D</t>
   </si>
@@ -44,71 +44,14 @@
   <si>
     <t>Device (sec)</t>
   </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>2.452</t>
-  </si>
-  <si>
-    <t>1.755</t>
-  </si>
-  <si>
-    <t>1.863</t>
-  </si>
-  <si>
-    <t>1.770</t>
-  </si>
-  <si>
-    <t>1.746</t>
-  </si>
-  <si>
-    <t>1.861</t>
-  </si>
-  <si>
-    <t>1.724</t>
-  </si>
-  <si>
-    <t>1.818</t>
-  </si>
-  <si>
-    <t>1.765</t>
-  </si>
-  <si>
-    <t>1.712</t>
-  </si>
-  <si>
-    <t>4.241</t>
-  </si>
-  <si>
-    <t>3.994</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,8 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,6 +253,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -592,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,25 +547,25 @@
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -651,333 +595,350 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="C3" s="17">
+        <v>0.497</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2.452</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4.2409999999999997</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="C4" s="17">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3.9940000000000002</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="C5" s="17">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.863</v>
+      </c>
+      <c r="E5" s="17">
+        <v>3.9289999999999998</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="C6" s="17">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.77</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="C7" s="17">
+        <v>0.435</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1.746</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3.8759999999999999</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="C8" s="17">
+        <v>0.443</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.861</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3.96</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="C9" s="17">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.724</v>
+      </c>
+      <c r="E9" s="17">
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="C10" s="17">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="E10" s="17">
+        <v>3.9359999999999999</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="C11" s="17">
+        <v>0.433</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="C12" s="17">
+        <v>0.437</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1.712</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
       <c r="B16" s="4">
         <v>4</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="4">
         <v>5</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="4">
         <v>8</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
